--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nisha\Automation\Miro-Selenium-Java\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CCFDA3-DB35-4431-B2F5-4702C5097F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDBA6EA-4A25-4181-AF99-65EDD00BD1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3B05E561-63BB-4643-A21F-F2606C81852E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -82,25 +82,22 @@
     <t>nishsdawrsdd2@gmail.com</t>
   </si>
   <si>
+    <t>TCID_001</t>
+  </si>
+  <si>
+    <t>TCID_002</t>
+  </si>
+  <si>
+    <t>TCID_003</t>
+  </si>
+  <si>
+    <t>TCID_004</t>
+  </si>
+  <si>
+    <t>TCID_005</t>
+  </si>
+  <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>TCID_001</t>
-  </si>
-  <si>
-    <t>TCID_002</t>
-  </si>
-  <si>
-    <t>TCID_003</t>
-  </si>
-  <si>
-    <t>TCID_004</t>
-  </si>
-  <si>
-    <t>TCID_005</t>
   </si>
 </sst>
 </file>
@@ -466,7 +463,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -519,10 +516,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -536,10 +533,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -554,10 +551,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -572,10 +569,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nisha\Automation\Miro-Selenium-Java\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDBA6EA-4A25-4181-AF99-65EDD00BD1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B441F023-36BE-4622-94AC-897DC3F564BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3B05E561-63BB-4643-A21F-F2606C81852E}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
